--- a/springboot/src/main/resources/flow/2023-04-14_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-14_1.xlsx
@@ -996,8 +996,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/springboot/src/main/resources/flow/2023-04-14_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-14_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="8710"/>
+    <workbookView windowWidth="9252" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,10 +997,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A1" sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="9.41666666666667"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -1585,7 +1585,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1602,7 +1602,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/springboot/src/main/resources/flow/2023-04-14_1.xlsx
+++ b/springboot/src/main/resources/flow/2023-04-14_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="8710"/>
+    <workbookView windowWidth="9252" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,11 +996,11 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="9.41666666666667"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -1585,7 +1585,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1602,7 +1602,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
